--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Tnfrsf11b</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H2">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I2">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J2">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08045631724567</v>
+        <v>2.311298</v>
       </c>
       <c r="N2">
-        <v>2.08045631724567</v>
+        <v>6.933894</v>
       </c>
       <c r="O2">
-        <v>0.8344237788845816</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P2">
-        <v>0.8344237788845816</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q2">
-        <v>11.74611800787244</v>
+        <v>14.33367941959067</v>
       </c>
       <c r="R2">
-        <v>11.74611800787244</v>
+        <v>129.003114776316</v>
       </c>
       <c r="S2">
-        <v>0.04942710692958791</v>
+        <v>0.04241293328280826</v>
       </c>
       <c r="T2">
-        <v>0.04942710692958791</v>
+        <v>0.06398012511129554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H3">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I3">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J3">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.412828713565324</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N3">
-        <v>0.412828713565324</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O3">
-        <v>0.1655762211154184</v>
+        <v>0.008556327142686946</v>
       </c>
       <c r="P3">
-        <v>0.1655762211154184</v>
+        <v>0.009099788701510982</v>
       </c>
       <c r="Q3">
-        <v>2.330803461904102</v>
+        <v>0.1509875900622222</v>
       </c>
       <c r="R3">
-        <v>2.330803461904102</v>
+        <v>1.35888831056</v>
       </c>
       <c r="S3">
-        <v>0.009807910312681646</v>
+        <v>0.0004467678114168337</v>
       </c>
       <c r="T3">
-        <v>0.009807910312681646</v>
+        <v>0.0006739515109589252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.62253671382392</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H4">
-        <v>6.62253671382392</v>
+        <v>18.604714</v>
       </c>
       <c r="I4">
-        <v>0.0694811720205131</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J4">
-        <v>0.0694811720205131</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.08045631724567</v>
+        <v>0.509813</v>
       </c>
       <c r="N4">
-        <v>2.08045631724567</v>
+        <v>1.019626</v>
       </c>
       <c r="O4">
-        <v>0.8344237788845816</v>
+        <v>0.1791673114565167</v>
       </c>
       <c r="P4">
-        <v>0.8344237788845816</v>
+        <v>0.1270315054020651</v>
       </c>
       <c r="Q4">
-        <v>13.77789834246635</v>
+        <v>3.161641686160666</v>
       </c>
       <c r="R4">
-        <v>13.77789834246635</v>
+        <v>18.969850116964</v>
       </c>
       <c r="S4">
-        <v>0.0579767421186862</v>
+        <v>0.009355204199418819</v>
       </c>
       <c r="T4">
-        <v>0.0579767421186862</v>
+        <v>0.009408248676245963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +714,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H5">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I5">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J5">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.412828713565324</v>
+        <v>2.311298</v>
       </c>
       <c r="N5">
-        <v>0.412828713565324</v>
+        <v>6.933894</v>
       </c>
       <c r="O5">
-        <v>0.1655762211154184</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P5">
-        <v>0.1655762211154184</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q5">
-        <v>2.733973312107057</v>
+        <v>17.24607669045067</v>
       </c>
       <c r="R5">
-        <v>2.733973312107057</v>
+        <v>155.214690214056</v>
       </c>
       <c r="S5">
-        <v>0.0115044299018269</v>
+        <v>0.05103063063225445</v>
       </c>
       <c r="T5">
-        <v>0.0115044299018269</v>
+        <v>0.07697996529948498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>83.0456490150182</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H6">
-        <v>83.0456490150182</v>
+        <v>22.384924</v>
       </c>
       <c r="I6">
-        <v>0.8712838107372173</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J6">
-        <v>0.8712838107372173</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.08045631724567</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N6">
-        <v>2.08045631724567</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O6">
-        <v>0.8344237788845816</v>
+        <v>0.008556327142686946</v>
       </c>
       <c r="P6">
-        <v>0.8344237788845816</v>
+        <v>0.009099788701510982</v>
       </c>
       <c r="Q6">
-        <v>172.7728451130613</v>
+        <v>0.1816660943288889</v>
       </c>
       <c r="R6">
-        <v>172.7728451130613</v>
+        <v>1.63499484896</v>
       </c>
       <c r="S6">
-        <v>0.7270199298363075</v>
+        <v>0.0005375445977945242</v>
       </c>
       <c r="T6">
-        <v>0.7270199298363075</v>
+        <v>0.0008108887539201466</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +841,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>83.0456490150182</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H7">
-        <v>83.0456490150182</v>
+        <v>22.384924</v>
       </c>
       <c r="I7">
-        <v>0.8712838107372173</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J7">
-        <v>0.8712838107372173</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.412828713565324</v>
+        <v>0.509813</v>
       </c>
       <c r="N7">
-        <v>0.412828713565324</v>
+        <v>1.019626</v>
       </c>
       <c r="O7">
-        <v>0.1655762211154184</v>
+        <v>0.1791673114565167</v>
       </c>
       <c r="P7">
-        <v>0.1655762211154184</v>
+        <v>0.1270315054020651</v>
       </c>
       <c r="Q7">
-        <v>34.28362845006738</v>
+        <v>3.804041753070666</v>
       </c>
       <c r="R7">
-        <v>34.28362845006738</v>
+        <v>22.82425051842399</v>
       </c>
       <c r="S7">
-        <v>0.1442638809009099</v>
+        <v>0.01125604698940662</v>
       </c>
       <c r="T7">
-        <v>0.1442638809009099</v>
+        <v>0.01131986934015038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>105.106922</v>
+      </c>
+      <c r="H8">
+        <v>210.213844</v>
+      </c>
+      <c r="I8">
+        <v>0.8849608724869005</v>
+      </c>
+      <c r="J8">
+        <v>0.836826951307944</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.311298</v>
+      </c>
+      <c r="N8">
+        <v>6.933894</v>
+      </c>
+      <c r="O8">
+        <v>0.8122763614007964</v>
+      </c>
+      <c r="P8">
+        <v>0.8638687058964239</v>
+      </c>
+      <c r="Q8">
+        <v>242.933418604756</v>
+      </c>
+      <c r="R8">
+        <v>1457.600511628536</v>
+      </c>
+      <c r="S8">
+        <v>0.7188327974857337</v>
+      </c>
+      <c r="T8">
+        <v>0.7229086154856434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>105.106922</v>
+      </c>
+      <c r="H9">
+        <v>210.213844</v>
+      </c>
+      <c r="I9">
+        <v>0.8849608724869005</v>
+      </c>
+      <c r="J9">
+        <v>0.836826951307944</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.02434666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.07303999999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.008556327142686946</v>
+      </c>
+      <c r="P9">
+        <v>0.009099788701510982</v>
+      </c>
+      <c r="Q9">
+        <v>2.559003194293333</v>
+      </c>
+      <c r="R9">
+        <v>15.35401916576</v>
+      </c>
+      <c r="S9">
+        <v>0.007572014733475589</v>
+      </c>
+      <c r="T9">
+        <v>0.00761494843663191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>105.106922</v>
+      </c>
+      <c r="H10">
+        <v>210.213844</v>
+      </c>
+      <c r="I10">
+        <v>0.8849608724869005</v>
+      </c>
+      <c r="J10">
+        <v>0.836826951307944</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.509813</v>
+      </c>
+      <c r="N10">
+        <v>1.019626</v>
+      </c>
+      <c r="O10">
+        <v>0.1791673114565167</v>
+      </c>
+      <c r="P10">
+        <v>0.1270315054020651</v>
+      </c>
+      <c r="Q10">
+        <v>53.584875225586</v>
+      </c>
+      <c r="R10">
+        <v>214.339500902344</v>
+      </c>
+      <c r="S10">
+        <v>0.1585560602676912</v>
+      </c>
+      <c r="T10">
+        <v>0.1063033873856688</v>
       </c>
     </row>
   </sheetData>
